--- a/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 12,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 5,22</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; 5,65</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 14,74</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 5,51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 5,95</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 5,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 4,78</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 6,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 5,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 5,02</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 14,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 4,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 5,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 7,81</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 17,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 4,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 6,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 8,47</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>0,0; 31,68</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 32,26</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,55</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,54%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>0,0; 46,36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 47,62</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 6,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 3,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,4</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 6,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 3,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,82</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 5,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 6,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 4,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 4,68</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 5,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 7,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 4,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 4,91</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,99</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 5,02</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,86</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,18</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,28</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 5,25</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 5,28</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 3,92</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 4,07</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,96</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,07</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 2,92</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 2,96</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 4,08</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 4,24</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,06</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 3,19</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 3,02</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 3,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0,0; 5,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,37</t>
+          <t>0,0; 6,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 5,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,16</t>
+          <t>0,0; 12,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,85</t>
+          <t>0,0; 12,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,61</t>
+          <t>0,0; 13,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 5,22</t>
+          <t>-9,08; 5,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 5,65</t>
+          <t>-3,45; 5,5</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,17</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,74</t>
+          <t>0,0; 14,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,21</t>
+          <t>0,0; 15,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 5,51</t>
+          <t>-9,36; 5,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,61</t>
+          <t>0,0; 9,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,95</t>
+          <t>-3,5; 5,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,24</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,7</t>
+          <t>0,0; 11,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,46</t>
+          <t>0,0; 8,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,75</t>
+          <t>-1,82; 5,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,6</t>
+          <t>0,63; 5,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,78</t>
+          <t>-0,32; 4,98</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,41</t>
+          <t>0,0; 10,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,74</t>
+          <t>0,0; 13,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,06</t>
+          <t>0,0; 9,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,12</t>
+          <t>-1,82; 6,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,94</t>
+          <t>0,63; 5,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,02</t>
+          <t>-0,32; 5,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 14,6</t>
+          <t>-1,72; 13,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,9</t>
+          <t>0,0; 14,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,65</t>
+          <t>-3,68; 4,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,63</t>
+          <t>0,0; 8,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,8</t>
+          <t>-1,5; 5,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,81</t>
+          <t>0,81; 7,79</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 17,22</t>
+          <t>-1,72; 15,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,89</t>
+          <t>0,0; 17,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,88</t>
+          <t>-3,77; 5,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,26</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,18</t>
+          <t>-1,51; 6,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,47</t>
+          <t>0,82; 8,44</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,81</t>
+          <t>0,0; 6,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,01</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,04</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,17</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,4</t>
+          <t>0,0; 5,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,27</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,21</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,68</t>
+          <t>0,0; 33,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,26</t>
+          <t>0,0; 33,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,22</t>
+          <t>0,0; 13,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,55</t>
+          <t>0,0; 13,34</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,36</t>
+          <t>0,0; 50,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,62</t>
+          <t>0,0; 50,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,19 +1359,19 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,95</t>
+          <t>0,0; 15,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,68</t>
+          <t>0,0; 15,39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,33</t>
+          <t>-3,21; 6,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>0,0; 10,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,58</t>
+          <t>-1,58; 4,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1505,17 +1505,17 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,87</t>
+          <t>-3,22; 6,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,91</t>
+          <t>0,0; 12,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,74</t>
+          <t>-1,58; 4,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 6,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,64</t>
+          <t>-0,45; 6,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,59</t>
+          <t>0,78; 7,28</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,28</t>
+          <t>0,41; 4,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,68</t>
+          <t>0,82; 4,8</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,31</t>
+          <t>0,0; 7,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,29</t>
+          <t>0,0; 7,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,98</t>
+          <t>-0,46; 6,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,06</t>
+          <t>0,79; 7,85</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,55</t>
+          <t>0,41; 4,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,91</t>
+          <t>0,82; 5,05</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,29</t>
+          <t>0,0; 7,65</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,56</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,95</t>
+          <t>0,0; 7,58</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 7,26</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,99</t>
+          <t>0,56; 4,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,02</t>
+          <t>0,56; 4,9</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,86</t>
+          <t>0,0; 8,29</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,18</t>
+          <t>0,0; 8,07</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,47</t>
+          <t>0,0; 8,2</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,28</t>
+          <t>0,0; 7,82</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,25</t>
+          <t>0,57; 5,1</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,28</t>
+          <t>0,57; 5,16</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,92</t>
+          <t>0,87; 3,82</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,07</t>
+          <t>1,2; 4,27</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,96</t>
+          <t>0,48; 3,08</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,07</t>
+          <t>0,55; 3,1</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,92</t>
+          <t>1,04; 2,9</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,96</t>
+          <t>1,08; 3,04</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,08</t>
+          <t>0,87; 3,97</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,24</t>
+          <t>1,21; 4,46</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,06</t>
+          <t>0,48; 3,18</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,19</t>
+          <t>0,56; 3,23</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,02</t>
+          <t>1,05; 3,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,06</t>
+          <t>1,1; 3,14</t>
         </is>
       </c>
     </row>
